--- a/data/ground_truth.xlsx
+++ b/data/ground_truth.xlsx
@@ -13613,7 +13613,7 @@
   <dimension ref="A1:U1111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1116" activeCellId="0" sqref="A1116"/>
+      <selection pane="topLeft" activeCell="B967" activeCellId="0" sqref="B967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
